--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Augustus_Allen/Arthur_Augustus_Allen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Augustus_Allen/Arthur_Augustus_Allen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Augustus Allen, né le 28 décembre 1885 à Buffalo dans l'État de New York et mort le 17 janvier 1964 à Ithaca, est un ornithologue américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Daniel Williams Allen et d’Anna née Moore. Il fait ses études au Buffalo High School et à l'université Cornell où il obtient son Bachelor of Arts en 1907, son Master of Arts en 1908 et son Ph. D. en 1911. Sa thèse s’intitule The Red-Winged Blackbird : A Study in the Ecology of a Cattail Marsh (Le carouge à épaulettes : une étude écologique d’un marais à joncs) qui lui vaut une grande réputation[réf. nécessaire]. Il dirige de 1911 à 1912 une expédition en Colombie avant d’être nommé instructeur en zoologie de 1912 à 1916 à l’université de Cornell.
 Allen se marie avec Elsa Guerdrum en 1913, union dont naîtront cinq enfants. Sa femme obtient également un doctorat à Cornell et poursuit une brillante carrière[réf. nécessaire] d’historienne de l’ornithologie. Arthur poursuit sa carrière à Cornell et est professeur assistant de 1916 à 1926, professeur de 1926 à 1953. Après sa retraite, il est conférencier pour la National Audubon Society de 1953 à 1959.
